--- a/S3/S3_L/S3_L_jikken/S3_L_Fluctuations/ゆらぎ/ゆらぎ二週目.xlsx
+++ b/S3/S3_L/S3_L_jikken/S3_L_Fluctuations/ゆらぎ/ゆらぎ二週目.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="299" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,6 +96,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>測定値</t>
     </r>
@@ -120,6 +121,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>文献値</t>
     </r>
@@ -229,11 +231,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,12 +263,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -419,7 +414,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -501,11 +496,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93813973"/>
-        <c:axId val="4155618"/>
+        <c:axId val="90059002"/>
+        <c:axId val="65129552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93813973"/>
+        <c:axId val="90059002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,11 +547,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4155618"/>
+        <c:crossAx val="65129552"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4155618"/>
+        <c:axId val="65129552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +598,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93813973"/>
+        <c:crossAx val="90059002"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -626,7 +621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -719,11 +714,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99853967"/>
-        <c:axId val="49391120"/>
+        <c:axId val="65410603"/>
+        <c:axId val="10237057"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99853967"/>
+        <c:axId val="65410603"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -740,11 +735,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49391120"/>
+        <c:crossAx val="10237057"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49391120"/>
+        <c:axId val="10237057"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -770,7 +765,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99853967"/>
+        <c:crossAx val="65410603"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -805,7 +800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -819,7 +814,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -910,11 +905,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7259420"/>
-        <c:axId val="78859655"/>
+        <c:axId val="23370795"/>
+        <c:axId val="54182148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7259420"/>
+        <c:axId val="23370795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,11 +925,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78859655"/>
+        <c:crossAx val="54182148"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78859655"/>
+        <c:axId val="54182148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +954,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7259420"/>
+        <c:crossAx val="23370795"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -994,7 +989,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1008,7 +1003,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -1082,11 +1077,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17675744"/>
-        <c:axId val="60362102"/>
+        <c:axId val="10955794"/>
+        <c:axId val="45268019"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17675744"/>
+        <c:axId val="10955794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,11 +1097,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60362102"/>
+        <c:crossAx val="45268019"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60362102"/>
+        <c:axId val="45268019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1126,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="17675744"/>
+        <c:crossAx val="10955794"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1166,7 +1161,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1271,11 +1266,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38102578"/>
-        <c:axId val="88680837"/>
+        <c:axId val="53203670"/>
+        <c:axId val="51340998"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38102578"/>
+        <c:axId val="53203670"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1303,11 +1298,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88680837"/>
+        <c:crossAx val="51340998"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88680837"/>
+        <c:axId val="51340998"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1336,7 +1331,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38102578"/>
+        <c:crossAx val="53203670"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1362,7 +1357,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1479,11 +1474,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59149214"/>
-        <c:axId val="90150955"/>
+        <c:axId val="66782877"/>
+        <c:axId val="96425072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59149214"/>
+        <c:axId val="66782877"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1511,11 +1506,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90150955"/>
+        <c:crossAx val="96425072"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90150955"/>
+        <c:axId val="96425072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1543,7 +1538,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59149214"/>
+        <c:crossAx val="66782877"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1574,15 +1569,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
+      <xdr:colOff>280080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>423720</xdr:colOff>
+      <xdr:colOff>450360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1590,8 +1585,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4421520" y="4363560"/>
-        <a:ext cx="5098320" cy="2742480"/>
+        <a:off x="4448520" y="4354560"/>
+        <a:ext cx="5097960" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1604,15 +1599,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>329040</xdr:colOff>
+      <xdr:colOff>356040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1620,8 +1615,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10942920" y="4381200"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="10969920" y="4372200"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1634,15 +1629,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>481320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1650,8 +1645,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9861840" y="435960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9888840" y="426960"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1663,16 +1658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>540360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1680,8 +1675,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10295640" y="1971720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="11465640" y="3122640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1699,15 +1694,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1715,8 +1710,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="54000" y="3458520"/>
-        <a:ext cx="5159160" cy="2742480"/>
+        <a:off x="81000" y="3449520"/>
+        <a:ext cx="5158800" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,15 +1724,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>123120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>321120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1745,8 +1740,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1613520" y="943560"/>
-        <a:ext cx="5576400" cy="4905000"/>
+        <a:off x="1640520" y="934560"/>
+        <a:ext cx="5576040" cy="4904640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1766,8 +1761,8 @@
   </sheetPr>
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
